--- a/core/seed_sales_saleinvoicedetail.xlsx
+++ b/core/seed_sales_saleinvoicedetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB63B050-AA95-4B5A-BB50-291AD9B3EEB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD33FA-881B-4842-B5E5-39BEC7F098AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t>HEADER CODE</t>
   </si>
@@ -31,19 +31,109 @@
     <t>QUANTITY</t>
   </si>
   <si>
-    <t>PV 003</t>
-  </si>
-  <si>
-    <t>PV 001</t>
-  </si>
-  <si>
-    <t>PV 005</t>
-  </si>
-  <si>
-    <t>SIH 01</t>
-  </si>
-  <si>
-    <t>SIH 02</t>
+    <t>SI-1</t>
+  </si>
+  <si>
+    <t>PV-001</t>
+  </si>
+  <si>
+    <t>SI-2</t>
+  </si>
+  <si>
+    <t>PV-002</t>
+  </si>
+  <si>
+    <t>SI-3</t>
+  </si>
+  <si>
+    <t>PV-003</t>
+  </si>
+  <si>
+    <t>SI-4</t>
+  </si>
+  <si>
+    <t>SI-5</t>
+  </si>
+  <si>
+    <t>SI-6</t>
+  </si>
+  <si>
+    <t>SI-7</t>
+  </si>
+  <si>
+    <t>SI-8</t>
+  </si>
+  <si>
+    <t>SI-9</t>
+  </si>
+  <si>
+    <t>SI-10</t>
+  </si>
+  <si>
+    <t>SI-11</t>
+  </si>
+  <si>
+    <t>SI-12</t>
+  </si>
+  <si>
+    <t>SI-13</t>
+  </si>
+  <si>
+    <t>SI-14</t>
+  </si>
+  <si>
+    <t>SI-15</t>
+  </si>
+  <si>
+    <t>SI-16</t>
+  </si>
+  <si>
+    <t>SI-17</t>
+  </si>
+  <si>
+    <t>SI-18</t>
+  </si>
+  <si>
+    <t>SI-19</t>
+  </si>
+  <si>
+    <t>SI-20</t>
+  </si>
+  <si>
+    <t>SI-21</t>
+  </si>
+  <si>
+    <t>SI-22</t>
+  </si>
+  <si>
+    <t>SI-23</t>
+  </si>
+  <si>
+    <t>SI-24</t>
+  </si>
+  <si>
+    <t>SI-25</t>
+  </si>
+  <si>
+    <t>SI-26</t>
+  </si>
+  <si>
+    <t>SI-27</t>
+  </si>
+  <si>
+    <t>SI-28</t>
+  </si>
+  <si>
+    <t>SI-29</t>
+  </si>
+  <si>
+    <t>SI-30</t>
+  </si>
+  <si>
+    <t>SI-31</t>
+  </si>
+  <si>
+    <t>SI-32</t>
   </si>
 </sst>
 </file>
@@ -884,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,46 +1000,695 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="C5">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
